--- a/Project Outputs for PCB_Project/PCB_Project.xlsx
+++ b/Project Outputs for PCB_Project/PCB_Project.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8297CC04-930C-48DE-A9D2-6CD90DE33AAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Chien\Google 雲端硬碟\LPM project\hardware\LPM-final-project\Project Outputs for PCB_Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6E191C-D0EC-4B48-9BB9-4089E1637C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{D49A619E-7E14-4527-B7E1-812908C655FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9346324D-2657-488E-880E-30ABDA1F1A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB_Project" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="138">
   <si>
     <t>Comment</t>
   </si>
@@ -58,16 +65,10 @@
     <t>1206-CAP</t>
   </si>
   <si>
-    <t>1206C 10UF</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>0805C 10UF</t>
   </si>
   <si>
-    <t>C4</t>
+    <t>C3, C4</t>
   </si>
   <si>
     <t>0805-CAP</t>
@@ -151,15 +152,12 @@
     <t>LEDG</t>
   </si>
   <si>
-    <t>D2</t>
+    <t>D2, D3, D5, D6</t>
   </si>
   <si>
     <t>0603 LEDG</t>
   </si>
   <si>
-    <t>D3, D5, D6</t>
-  </si>
-  <si>
     <t>ESD_USB</t>
   </si>
   <si>
@@ -202,13 +200,25 @@
     <t>Bat_connector</t>
   </si>
   <si>
-    <t>P1, P2, P3</t>
+    <t>P1, P2</t>
   </si>
   <si>
     <t>2_PINS_2.54</t>
   </si>
   <si>
-    <t>SWD</t>
+    <t>ZX62D-B-5P8</t>
+  </si>
+  <si>
+    <t>USB - micro B USB 2.0 Receptacle Connector 5 Position Surface Mount, Right Angle; Through Hole</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>*HRS_ZX62D-B-5P8_ZX62D-B-5P8(Primary)</t>
+  </si>
+  <si>
+    <t>SWO</t>
   </si>
   <si>
     <t>P4</t>
@@ -220,13 +230,13 @@
     <t>4pins_connector</t>
   </si>
   <si>
-    <t>3pins_connector</t>
+    <t>6pins_connector</t>
   </si>
   <si>
     <t>P5</t>
   </si>
   <si>
-    <t>3_PINS_2.54</t>
+    <t>6_PINS_2.54</t>
   </si>
   <si>
     <t>0805R 5K1R</t>
@@ -331,15 +341,30 @@
     <t>PTS810_SJM_250_SMTR_LFS</t>
   </si>
   <si>
-    <t>1pin_connector</t>
-  </si>
-  <si>
-    <t>T1, T2, T3, T4, T5, T6, T7, T8, T9, T10, T11, T12, T13, T14, T15</t>
+    <t>1pin_header</t>
+  </si>
+  <si>
+    <t>T1, T2, T3, T4, T5, T6, T7</t>
   </si>
   <si>
     <t>1_PIN_2.54</t>
   </si>
   <si>
+    <t>1pin_test</t>
+  </si>
+  <si>
+    <t>T8, T9, T10</t>
+  </si>
+  <si>
+    <t>1_PIN_test</t>
+  </si>
+  <si>
+    <t>T11, T12, T13, T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
     <t>TPS2111APW</t>
   </si>
   <si>
@@ -413,22 +438,42 @@
   </si>
   <si>
     <t>XB24CAPIT-001</t>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -448,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -471,20 +516,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -500,7 +579,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -795,17 +874,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7484EC12-0F38-4847-98B7-E0D145089048}">
-  <dimension ref="A1:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A82EFA-E269-45B9-9F08-7B4CCA289159}">
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A48" sqref="A47:A48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="6" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -844,8 +925,11 @@
       <c r="F2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -856,56 +940,65 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -916,36 +1009,42 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -956,16 +1055,19 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -976,16 +1078,19 @@
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -996,16 +1101,19 @@
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1016,36 +1124,42 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1056,558 +1170,624 @@
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="3">
+      <c r="E31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="E33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F39" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -1616,21 +1796,21 @@
         <v>109</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>112</v>
@@ -1639,13 +1819,16 @@
         <v>113</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -1659,74 +1842,152 @@
         <v>116</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="B47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>